--- a/ramp/Services.xlsx
+++ b/ramp/Services.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://feemit-my.sharepoint.com/personal/giacomo_falchetta_feem_it/Documents/Current papers/Prod_Uses_Agriculture/Repo/ramp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stevo\Repositories\M-LED\ramp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1275" documentId="11_AD4D5CB4E552A5DACE1C64ECC05F79705ADEDD97" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D7383D48-F9F7-4607-B132-0AEC9A928D5F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28AE8CF1-3EC8-4B98-AC53-D60D9B8CE9BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13290" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="School" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7373" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7373" uniqueCount="78">
   <si>
     <t>Number</t>
   </si>
@@ -261,6 +261,18 @@
   <si>
     <t>*2</t>
   </si>
+  <si>
+    <t>Full Time School</t>
+  </si>
+  <si>
+    <t>14 Days Holiday</t>
+  </si>
+  <si>
+    <t>School Closed</t>
+  </si>
+  <si>
+    <t>0.7*0.5</t>
+  </si>
 </sst>
 </file>
 
@@ -296,7 +308,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -312,6 +324,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -343,7 +361,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -353,6 +371,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -635,26 +655,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P228"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="Q66" sqref="Q66"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="C2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D2" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="C3" t="s">
         <v>0</v>
       </c>
@@ -698,7 +724,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>18</v>
       </c>
@@ -745,7 +771,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>19</v>
       </c>
@@ -792,7 +818,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>20</v>
       </c>
@@ -839,7 +865,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>16</v>
       </c>
@@ -886,7 +912,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>21</v>
       </c>
@@ -933,7 +959,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>22</v>
       </c>
@@ -980,7 +1006,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>23</v>
       </c>
@@ -1027,7 +1053,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>24</v>
       </c>
@@ -1074,7 +1100,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>25</v>
       </c>
@@ -1121,7 +1147,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>26</v>
       </c>
@@ -1168,7 +1194,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>27</v>
       </c>
@@ -1215,7 +1241,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>28</v>
       </c>
@@ -1262,7 +1288,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>29</v>
       </c>
@@ -1309,7 +1335,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>30</v>
       </c>
@@ -1356,7 +1382,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>31</v>
       </c>
@@ -1403,7 +1429,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>32</v>
       </c>
@@ -1450,12 +1476,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.35">
       <c r="C21" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D21" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.35">
       <c r="C22" t="s">
         <v>0</v>
       </c>
@@ -1499,7 +1528,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>18</v>
       </c>
@@ -1546,7 +1575,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>19</v>
       </c>
@@ -1593,7 +1622,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>20</v>
       </c>
@@ -1640,7 +1669,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>16</v>
       </c>
@@ -1687,7 +1716,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>21</v>
       </c>
@@ -1734,7 +1763,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>22</v>
       </c>
@@ -1781,7 +1810,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>23</v>
       </c>
@@ -1828,7 +1857,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>24</v>
       </c>
@@ -1875,7 +1904,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>25</v>
       </c>
@@ -1922,7 +1951,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>26</v>
       </c>
@@ -1969,7 +1998,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
         <v>27</v>
       </c>
@@ -2016,7 +2045,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
         <v>28</v>
       </c>
@@ -2063,7 +2092,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
         <v>29</v>
       </c>
@@ -2110,7 +2139,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
         <v>30</v>
       </c>
@@ -2157,7 +2186,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
         <v>31</v>
       </c>
@@ -2204,7 +2233,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
         <v>32</v>
       </c>
@@ -2251,12 +2280,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.35">
       <c r="C40" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D40" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.35">
       <c r="C41" t="s">
         <v>0</v>
       </c>
@@ -2300,7 +2332,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
         <v>18</v>
       </c>
@@ -2347,7 +2379,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
         <v>19</v>
       </c>
@@ -2394,7 +2426,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
         <v>20</v>
       </c>
@@ -2441,7 +2473,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
         <v>16</v>
       </c>
@@ -2488,7 +2520,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
         <v>21</v>
       </c>
@@ -2535,7 +2567,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
         <v>22</v>
       </c>
@@ -2582,7 +2614,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
         <v>23</v>
       </c>
@@ -2629,7 +2661,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
         <v>24</v>
       </c>
@@ -2676,7 +2708,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B50" t="s">
         <v>25</v>
       </c>
@@ -2723,7 +2755,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
         <v>26</v>
       </c>
@@ -2770,7 +2802,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B52" t="s">
         <v>27</v>
       </c>
@@ -2817,7 +2849,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B53" t="s">
         <v>28</v>
       </c>
@@ -2864,7 +2896,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="54" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B54" t="s">
         <v>29</v>
       </c>
@@ -2911,7 +2943,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="55" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B55" t="s">
         <v>30</v>
       </c>
@@ -2958,7 +2990,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B56" t="s">
         <v>31</v>
       </c>
@@ -3005,7 +3037,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="57" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B57" t="s">
         <v>32</v>
       </c>
@@ -3052,12 +3084,15 @@
         <v>33</v>
       </c>
     </row>
-    <row r="59" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:16" x14ac:dyDescent="0.35">
       <c r="C59" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="60" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D59" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="60" spans="2:16" x14ac:dyDescent="0.35">
       <c r="C60" t="s">
         <v>0</v>
       </c>
@@ -3101,7 +3136,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B61" t="s">
         <v>18</v>
       </c>
@@ -3141,14 +3176,14 @@
       <c r="N61" s="2">
         <v>0.2</v>
       </c>
-      <c r="O61" t="s">
-        <v>15</v>
+      <c r="O61">
+        <v>0.5</v>
       </c>
       <c r="P61" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="62" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B62" t="s">
         <v>19</v>
       </c>
@@ -3188,14 +3223,14 @@
       <c r="N62" s="2">
         <v>0.2</v>
       </c>
-      <c r="O62" t="s">
-        <v>15</v>
+      <c r="O62">
+        <v>0.5</v>
       </c>
       <c r="P62" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="63" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B63" t="s">
         <v>20</v>
       </c>
@@ -3242,7 +3277,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B64" t="s">
         <v>16</v>
       </c>
@@ -3282,14 +3317,14 @@
       <c r="N64" s="2">
         <v>0.35</v>
       </c>
-      <c r="O64" t="s">
-        <v>15</v>
+      <c r="O64">
+        <v>0.5</v>
       </c>
       <c r="P64" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B65" t="s">
         <v>21</v>
       </c>
@@ -3329,14 +3364,14 @@
       <c r="N65" s="2">
         <v>0.35</v>
       </c>
-      <c r="O65">
-        <v>0.7</v>
+      <c r="O65" t="s">
+        <v>77</v>
       </c>
       <c r="P65" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B66" t="s">
         <v>22</v>
       </c>
@@ -3376,14 +3411,14 @@
       <c r="N66" s="2">
         <v>0.2</v>
       </c>
-      <c r="O66" s="2" t="s">
-        <v>15</v>
+      <c r="O66" s="2">
+        <v>0.5</v>
       </c>
       <c r="P66" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B67" t="s">
         <v>23</v>
       </c>
@@ -3423,14 +3458,14 @@
       <c r="N67" s="2">
         <v>0.2</v>
       </c>
-      <c r="O67" s="2" t="s">
-        <v>15</v>
+      <c r="O67" s="2">
+        <v>0.5</v>
       </c>
       <c r="P67" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B68" t="s">
         <v>24</v>
       </c>
@@ -3470,14 +3505,14 @@
       <c r="N68" s="2">
         <v>0.35</v>
       </c>
-      <c r="O68" s="2" t="s">
-        <v>15</v>
+      <c r="O68" s="2">
+        <v>0.5</v>
       </c>
       <c r="P68" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B69" t="s">
         <v>25</v>
       </c>
@@ -3517,14 +3552,14 @@
       <c r="N69" s="2">
         <v>0.35</v>
       </c>
-      <c r="O69" s="2" t="s">
-        <v>15</v>
+      <c r="O69" s="2">
+        <v>0.5</v>
       </c>
       <c r="P69" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B70" t="s">
         <v>26</v>
       </c>
@@ -3564,14 +3599,14 @@
       <c r="N70" s="2">
         <v>0.35</v>
       </c>
-      <c r="O70">
-        <v>0.7</v>
+      <c r="O70" t="s">
+        <v>77</v>
       </c>
       <c r="P70" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B71" t="s">
         <v>27</v>
       </c>
@@ -3611,14 +3646,14 @@
       <c r="N71" s="2">
         <v>0.35</v>
       </c>
-      <c r="O71">
-        <v>0.7</v>
+      <c r="O71" t="s">
+        <v>77</v>
       </c>
       <c r="P71" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B72" t="s">
         <v>28</v>
       </c>
@@ -3658,14 +3693,14 @@
       <c r="N72" s="2">
         <v>0.35</v>
       </c>
-      <c r="O72">
-        <v>0.7</v>
+      <c r="O72" t="s">
+        <v>77</v>
       </c>
       <c r="P72" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B73" t="s">
         <v>29</v>
       </c>
@@ -3705,14 +3740,14 @@
       <c r="N73" s="2">
         <v>0.35</v>
       </c>
-      <c r="O73" s="2" t="s">
-        <v>15</v>
+      <c r="O73" s="2">
+        <v>0.5</v>
       </c>
       <c r="P73" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B74" t="s">
         <v>30</v>
       </c>
@@ -3759,7 +3794,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B75" t="s">
         <v>31</v>
       </c>
@@ -3799,14 +3834,14 @@
       <c r="N75" s="2">
         <v>0.2</v>
       </c>
-      <c r="O75" s="2" t="s">
-        <v>15</v>
+      <c r="O75" s="2">
+        <v>0.5</v>
       </c>
       <c r="P75" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B76" t="s">
         <v>32</v>
       </c>
@@ -3846,19 +3881,22 @@
       <c r="N76">
         <v>0.35</v>
       </c>
-      <c r="O76" t="s">
-        <v>15</v>
+      <c r="O76">
+        <v>0.5</v>
       </c>
       <c r="P76" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="78" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:16" x14ac:dyDescent="0.35">
       <c r="C78" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D78" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.35">
       <c r="C79" t="s">
         <v>0</v>
       </c>
@@ -3902,7 +3940,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B80" t="s">
         <v>18</v>
       </c>
@@ -3949,7 +3987,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="81" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B81" t="s">
         <v>19</v>
       </c>
@@ -3996,7 +4034,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="82" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B82" t="s">
         <v>20</v>
       </c>
@@ -4043,7 +4081,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B83" t="s">
         <v>16</v>
       </c>
@@ -4090,7 +4128,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="84" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B84" t="s">
         <v>21</v>
       </c>
@@ -4137,7 +4175,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="85" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B85" t="s">
         <v>22</v>
       </c>
@@ -4184,7 +4222,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="86" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B86" t="s">
         <v>23</v>
       </c>
@@ -4231,7 +4269,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="87" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B87" t="s">
         <v>24</v>
       </c>
@@ -4278,7 +4316,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="88" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B88" t="s">
         <v>25</v>
       </c>
@@ -4325,7 +4363,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="89" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B89" t="s">
         <v>26</v>
       </c>
@@ -4372,7 +4410,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="90" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B90" t="s">
         <v>27</v>
       </c>
@@ -4419,7 +4457,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="91" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B91" t="s">
         <v>28</v>
       </c>
@@ -4466,7 +4504,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="92" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B92" t="s">
         <v>29</v>
       </c>
@@ -4513,7 +4551,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="93" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B93" t="s">
         <v>30</v>
       </c>
@@ -4560,7 +4598,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="94" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B94" t="s">
         <v>31</v>
       </c>
@@ -4607,7 +4645,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="95" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B95" t="s">
         <v>32</v>
       </c>
@@ -4654,12 +4692,15 @@
         <v>33</v>
       </c>
     </row>
-    <row r="97" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:16" x14ac:dyDescent="0.35">
       <c r="C97" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="98" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D97" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="98" spans="2:16" x14ac:dyDescent="0.35">
       <c r="C98" t="s">
         <v>0</v>
       </c>
@@ -4703,7 +4744,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B99" t="s">
         <v>18</v>
       </c>
@@ -4750,7 +4791,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="100" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B100" t="s">
         <v>19</v>
       </c>
@@ -4797,7 +4838,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="101" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B101" t="s">
         <v>20</v>
       </c>
@@ -4844,7 +4885,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="102" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B102" t="s">
         <v>16</v>
       </c>
@@ -4891,7 +4932,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="103" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B103" t="s">
         <v>21</v>
       </c>
@@ -4938,7 +4979,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="104" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B104" t="s">
         <v>22</v>
       </c>
@@ -4985,7 +5026,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="105" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B105" t="s">
         <v>23</v>
       </c>
@@ -5032,7 +5073,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="106" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B106" t="s">
         <v>24</v>
       </c>
@@ -5079,7 +5120,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="107" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B107" t="s">
         <v>25</v>
       </c>
@@ -5126,7 +5167,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="108" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B108" t="s">
         <v>26</v>
       </c>
@@ -5173,7 +5214,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="109" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B109" t="s">
         <v>27</v>
       </c>
@@ -5220,7 +5261,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="110" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B110" t="s">
         <v>28</v>
       </c>
@@ -5267,7 +5308,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="111" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B111" t="s">
         <v>29</v>
       </c>
@@ -5314,7 +5355,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="112" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B112" t="s">
         <v>30</v>
       </c>
@@ -5361,7 +5402,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="113" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B113" t="s">
         <v>31</v>
       </c>
@@ -5408,7 +5449,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="114" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B114" t="s">
         <v>32</v>
       </c>
@@ -5455,12 +5496,15 @@
         <v>33</v>
       </c>
     </row>
-    <row r="116" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:16" x14ac:dyDescent="0.35">
       <c r="C116" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="117" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D116" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="117" spans="2:16" x14ac:dyDescent="0.35">
       <c r="C117" t="s">
         <v>0</v>
       </c>
@@ -5504,7 +5548,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="118" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B118" t="s">
         <v>18</v>
       </c>
@@ -5551,7 +5595,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="119" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B119" t="s">
         <v>19</v>
       </c>
@@ -5598,7 +5642,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="120" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B120" t="s">
         <v>20</v>
       </c>
@@ -5645,7 +5689,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="121" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B121" t="s">
         <v>16</v>
       </c>
@@ -5692,7 +5736,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="122" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B122" t="s">
         <v>21</v>
       </c>
@@ -5739,7 +5783,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="123" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B123" t="s">
         <v>22</v>
       </c>
@@ -5786,7 +5830,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="124" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B124" t="s">
         <v>23</v>
       </c>
@@ -5833,7 +5877,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="125" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B125" t="s">
         <v>24</v>
       </c>
@@ -5880,7 +5924,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="126" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B126" t="s">
         <v>25</v>
       </c>
@@ -5927,7 +5971,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="127" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B127" t="s">
         <v>26</v>
       </c>
@@ -5974,7 +6018,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="128" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B128" t="s">
         <v>27</v>
       </c>
@@ -6021,7 +6065,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="129" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B129" t="s">
         <v>28</v>
       </c>
@@ -6068,7 +6112,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="130" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B130" t="s">
         <v>29</v>
       </c>
@@ -6115,7 +6159,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="131" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B131" t="s">
         <v>30</v>
       </c>
@@ -6162,7 +6206,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="132" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B132" t="s">
         <v>31</v>
       </c>
@@ -6209,7 +6253,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="133" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B133" t="s">
         <v>32</v>
       </c>
@@ -6256,12 +6300,15 @@
         <v>33</v>
       </c>
     </row>
-    <row r="135" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:16" x14ac:dyDescent="0.35">
       <c r="C135" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="136" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D135" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="136" spans="2:16" x14ac:dyDescent="0.35">
       <c r="C136" t="s">
         <v>0</v>
       </c>
@@ -6305,7 +6352,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="137" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B137" t="s">
         <v>18</v>
       </c>
@@ -6345,14 +6392,14 @@
       <c r="N137" s="2">
         <v>0.2</v>
       </c>
-      <c r="O137" t="s">
-        <v>15</v>
+      <c r="O137">
+        <v>0.5</v>
       </c>
       <c r="P137" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="138" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B138" t="s">
         <v>19</v>
       </c>
@@ -6392,14 +6439,14 @@
       <c r="N138" s="2">
         <v>0.2</v>
       </c>
-      <c r="O138" t="s">
-        <v>15</v>
+      <c r="O138">
+        <v>0.5</v>
       </c>
       <c r="P138" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="139" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B139" t="s">
         <v>20</v>
       </c>
@@ -6446,7 +6493,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="140" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B140" t="s">
         <v>16</v>
       </c>
@@ -6486,14 +6533,14 @@
       <c r="N140" s="2">
         <v>0.35</v>
       </c>
-      <c r="O140" t="s">
-        <v>15</v>
+      <c r="O140">
+        <v>0.5</v>
       </c>
       <c r="P140" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="141" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B141" t="s">
         <v>21</v>
       </c>
@@ -6533,14 +6580,14 @@
       <c r="N141" s="2">
         <v>0.35</v>
       </c>
-      <c r="O141">
-        <v>0.7</v>
+      <c r="O141" t="s">
+        <v>77</v>
       </c>
       <c r="P141" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="142" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B142" t="s">
         <v>22</v>
       </c>
@@ -6580,14 +6627,14 @@
       <c r="N142" s="2">
         <v>0.2</v>
       </c>
-      <c r="O142" s="2" t="s">
-        <v>15</v>
+      <c r="O142" s="2">
+        <v>0.5</v>
       </c>
       <c r="P142" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="143" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B143" t="s">
         <v>23</v>
       </c>
@@ -6627,14 +6674,14 @@
       <c r="N143" s="2">
         <v>0.2</v>
       </c>
-      <c r="O143" s="2" t="s">
-        <v>15</v>
+      <c r="O143" s="2">
+        <v>0.5</v>
       </c>
       <c r="P143" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="144" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B144" t="s">
         <v>24</v>
       </c>
@@ -6674,14 +6721,14 @@
       <c r="N144" s="2">
         <v>0.35</v>
       </c>
-      <c r="O144" s="2" t="s">
-        <v>15</v>
+      <c r="O144" s="2">
+        <v>0.5</v>
       </c>
       <c r="P144" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="145" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B145" t="s">
         <v>25</v>
       </c>
@@ -6721,14 +6768,14 @@
       <c r="N145" s="2">
         <v>0.35</v>
       </c>
-      <c r="O145" s="2" t="s">
-        <v>15</v>
+      <c r="O145" s="2">
+        <v>0.5</v>
       </c>
       <c r="P145" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="146" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B146" t="s">
         <v>26</v>
       </c>
@@ -6768,14 +6815,14 @@
       <c r="N146" s="2">
         <v>0.35</v>
       </c>
-      <c r="O146">
-        <v>0.7</v>
+      <c r="O146" t="s">
+        <v>77</v>
       </c>
       <c r="P146" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="147" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B147" t="s">
         <v>27</v>
       </c>
@@ -6815,14 +6862,14 @@
       <c r="N147" s="2">
         <v>0.35</v>
       </c>
-      <c r="O147">
-        <v>0.7</v>
+      <c r="O147" t="s">
+        <v>77</v>
       </c>
       <c r="P147" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="148" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B148" t="s">
         <v>28</v>
       </c>
@@ -6862,14 +6909,14 @@
       <c r="N148" s="2">
         <v>0.35</v>
       </c>
-      <c r="O148">
-        <v>0.7</v>
+      <c r="O148" t="s">
+        <v>77</v>
       </c>
       <c r="P148" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="149" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B149" t="s">
         <v>29</v>
       </c>
@@ -6909,14 +6956,14 @@
       <c r="N149" s="2">
         <v>0.35</v>
       </c>
-      <c r="O149" s="2" t="s">
-        <v>15</v>
+      <c r="O149" s="2">
+        <v>0.5</v>
       </c>
       <c r="P149" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="150" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B150" t="s">
         <v>30</v>
       </c>
@@ -6963,7 +7010,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="151" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B151" t="s">
         <v>31</v>
       </c>
@@ -7003,14 +7050,14 @@
       <c r="N151" s="2">
         <v>0.2</v>
       </c>
-      <c r="O151" s="2" t="s">
-        <v>15</v>
+      <c r="O151" s="2">
+        <v>0.5</v>
       </c>
       <c r="P151" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="152" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B152" t="s">
         <v>32</v>
       </c>
@@ -7050,19 +7097,22 @@
       <c r="N152">
         <v>0.35</v>
       </c>
-      <c r="O152" t="s">
-        <v>15</v>
+      <c r="O152">
+        <v>0.5</v>
       </c>
       <c r="P152" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="154" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:16" x14ac:dyDescent="0.35">
       <c r="C154" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="155" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D154" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="155" spans="2:16" x14ac:dyDescent="0.35">
       <c r="C155" t="s">
         <v>0</v>
       </c>
@@ -7106,7 +7156,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="156" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B156" t="s">
         <v>18</v>
       </c>
@@ -7153,7 +7203,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="157" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B157" t="s">
         <v>19</v>
       </c>
@@ -7200,7 +7250,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="158" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B158" t="s">
         <v>20</v>
       </c>
@@ -7247,7 +7297,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="159" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B159" t="s">
         <v>16</v>
       </c>
@@ -7294,7 +7344,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="160" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B160" t="s">
         <v>21</v>
       </c>
@@ -7341,7 +7391,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="161" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B161" t="s">
         <v>22</v>
       </c>
@@ -7388,7 +7438,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="162" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B162" t="s">
         <v>23</v>
       </c>
@@ -7435,7 +7485,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="163" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B163" t="s">
         <v>24</v>
       </c>
@@ -7482,7 +7532,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="164" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B164" t="s">
         <v>25</v>
       </c>
@@ -7529,7 +7579,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="165" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B165" t="s">
         <v>26</v>
       </c>
@@ -7576,7 +7626,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="166" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B166" t="s">
         <v>27</v>
       </c>
@@ -7623,7 +7673,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="167" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B167" t="s">
         <v>28</v>
       </c>
@@ -7670,7 +7720,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="168" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B168" t="s">
         <v>29</v>
       </c>
@@ -7717,7 +7767,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="169" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B169" t="s">
         <v>30</v>
       </c>
@@ -7764,7 +7814,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="170" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B170" t="s">
         <v>31</v>
       </c>
@@ -7811,7 +7861,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="171" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B171" t="s">
         <v>32</v>
       </c>
@@ -7858,12 +7908,15 @@
         <v>33</v>
       </c>
     </row>
-    <row r="173" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:16" x14ac:dyDescent="0.35">
       <c r="C173" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="174" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D173" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="174" spans="2:16" x14ac:dyDescent="0.35">
       <c r="C174" t="s">
         <v>0</v>
       </c>
@@ -7907,7 +7960,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="175" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B175" t="s">
         <v>18</v>
       </c>
@@ -7954,7 +8007,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="176" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B176" t="s">
         <v>19</v>
       </c>
@@ -8001,7 +8054,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="177" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B177" t="s">
         <v>20</v>
       </c>
@@ -8048,7 +8101,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="178" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B178" t="s">
         <v>16</v>
       </c>
@@ -8095,7 +8148,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="179" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B179" t="s">
         <v>21</v>
       </c>
@@ -8142,7 +8195,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="180" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B180" t="s">
         <v>22</v>
       </c>
@@ -8189,7 +8242,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="181" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B181" t="s">
         <v>23</v>
       </c>
@@ -8236,7 +8289,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="182" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B182" t="s">
         <v>24</v>
       </c>
@@ -8283,7 +8336,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="183" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B183" t="s">
         <v>25</v>
       </c>
@@ -8330,7 +8383,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="184" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B184" t="s">
         <v>26</v>
       </c>
@@ -8377,7 +8430,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="185" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B185" t="s">
         <v>27</v>
       </c>
@@ -8424,7 +8477,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="186" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B186" t="s">
         <v>28</v>
       </c>
@@ -8471,7 +8524,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="187" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B187" t="s">
         <v>29</v>
       </c>
@@ -8518,7 +8571,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="188" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B188" t="s">
         <v>30</v>
       </c>
@@ -8565,7 +8618,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="189" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B189" t="s">
         <v>31</v>
       </c>
@@ -8612,7 +8665,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="190" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B190" t="s">
         <v>32</v>
       </c>
@@ -8659,12 +8712,15 @@
         <v>33</v>
       </c>
     </row>
-    <row r="192" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:16" x14ac:dyDescent="0.35">
       <c r="C192" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="193" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D192" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="193" spans="2:16" x14ac:dyDescent="0.35">
       <c r="C193" t="s">
         <v>0</v>
       </c>
@@ -8708,7 +8764,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="194" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B194" t="s">
         <v>18</v>
       </c>
@@ -8755,7 +8811,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="195" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B195" t="s">
         <v>19</v>
       </c>
@@ -8802,7 +8858,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="196" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B196" t="s">
         <v>20</v>
       </c>
@@ -8849,7 +8905,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="197" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B197" t="s">
         <v>16</v>
       </c>
@@ -8896,7 +8952,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="198" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B198" t="s">
         <v>21</v>
       </c>
@@ -8943,7 +8999,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="199" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B199" t="s">
         <v>22</v>
       </c>
@@ -8990,7 +9046,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="200" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B200" t="s">
         <v>23</v>
       </c>
@@ -9037,7 +9093,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="201" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B201" t="s">
         <v>24</v>
       </c>
@@ -9084,7 +9140,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="202" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B202" t="s">
         <v>25</v>
       </c>
@@ -9131,7 +9187,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="203" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B203" t="s">
         <v>26</v>
       </c>
@@ -9178,7 +9234,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="204" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B204" t="s">
         <v>27</v>
       </c>
@@ -9225,7 +9281,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="205" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B205" t="s">
         <v>28</v>
       </c>
@@ -9272,7 +9328,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="206" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B206" t="s">
         <v>29</v>
       </c>
@@ -9319,7 +9375,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="207" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B207" t="s">
         <v>30</v>
       </c>
@@ -9366,7 +9422,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="208" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B208" t="s">
         <v>31</v>
       </c>
@@ -9413,7 +9469,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="209" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B209" t="s">
         <v>32</v>
       </c>
@@ -9460,12 +9516,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="211" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:16" x14ac:dyDescent="0.35">
       <c r="C211" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="212" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D211" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="212" spans="2:16" x14ac:dyDescent="0.35">
       <c r="C212" t="s">
         <v>0</v>
       </c>
@@ -9509,7 +9568,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="213" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B213" t="s">
         <v>18</v>
       </c>
@@ -9556,7 +9615,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="214" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B214" t="s">
         <v>19</v>
       </c>
@@ -9603,7 +9662,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="215" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B215" t="s">
         <v>20</v>
       </c>
@@ -9650,7 +9709,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="216" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B216" t="s">
         <v>16</v>
       </c>
@@ -9697,7 +9756,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="217" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B217" t="s">
         <v>21</v>
       </c>
@@ -9744,7 +9803,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="218" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B218" t="s">
         <v>22</v>
       </c>
@@ -9791,7 +9850,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="219" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B219" t="s">
         <v>23</v>
       </c>
@@ -9838,7 +9897,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="220" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B220" t="s">
         <v>24</v>
       </c>
@@ -9885,7 +9944,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="221" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B221" t="s">
         <v>25</v>
       </c>
@@ -9932,7 +9991,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="222" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B222" t="s">
         <v>26</v>
       </c>
@@ -9979,7 +10038,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="223" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B223" t="s">
         <v>27</v>
       </c>
@@ -10026,7 +10085,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="224" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B224" t="s">
         <v>28</v>
       </c>
@@ -10073,7 +10132,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="225" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B225" t="s">
         <v>29</v>
       </c>
@@ -10120,7 +10179,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="226" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B226" t="s">
         <v>30</v>
       </c>
@@ -10167,7 +10226,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="227" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B227" t="s">
         <v>31</v>
       </c>
@@ -10214,7 +10273,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="228" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B228" t="s">
         <v>32</v>
       </c>
@@ -10273,25 +10332,25 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="C2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="C3" t="s">
         <v>0</v>
       </c>
@@ -10335,7 +10394,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>18</v>
       </c>
@@ -10382,7 +10441,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>19</v>
       </c>
@@ -10429,7 +10488,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>20</v>
       </c>
@@ -10476,7 +10535,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>29</v>
       </c>
@@ -10523,7 +10582,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>47</v>
       </c>
@@ -10570,7 +10629,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>48</v>
       </c>
@@ -10617,7 +10676,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>24</v>
       </c>
@@ -10664,7 +10723,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>30</v>
       </c>
@@ -10711,7 +10770,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>32</v>
       </c>
@@ -10758,7 +10817,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>49</v>
       </c>
@@ -10805,7 +10864,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>50</v>
       </c>
@@ -10852,12 +10911,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="C16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.35">
       <c r="C17" t="s">
         <v>0</v>
       </c>
@@ -10901,7 +10960,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>18</v>
       </c>
@@ -10948,7 +11007,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>19</v>
       </c>
@@ -10995,7 +11054,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>20</v>
       </c>
@@ -11042,7 +11101,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>29</v>
       </c>
@@ -11089,7 +11148,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>47</v>
       </c>
@@ -11136,7 +11195,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>48</v>
       </c>
@@ -11183,7 +11242,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>24</v>
       </c>
@@ -11230,7 +11289,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>30</v>
       </c>
@@ -11277,7 +11336,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>32</v>
       </c>
@@ -11324,7 +11383,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>49</v>
       </c>
@@ -11371,7 +11430,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>50</v>
       </c>
@@ -11418,12 +11477,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.35">
       <c r="C30" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.35">
       <c r="C31" t="s">
         <v>0</v>
       </c>
@@ -11467,7 +11526,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>18</v>
       </c>
@@ -11514,7 +11573,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
         <v>19</v>
       </c>
@@ -11561,7 +11620,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
         <v>20</v>
       </c>
@@ -11608,7 +11667,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
         <v>29</v>
       </c>
@@ -11655,7 +11714,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
         <v>47</v>
       </c>
@@ -11702,7 +11761,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
         <v>48</v>
       </c>
@@ -11749,7 +11808,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
         <v>24</v>
       </c>
@@ -11796,7 +11855,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
         <v>30</v>
       </c>
@@ -11843,7 +11902,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
         <v>32</v>
       </c>
@@ -11890,7 +11949,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
         <v>49</v>
       </c>
@@ -11937,7 +11996,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
         <v>50</v>
       </c>
@@ -11984,12 +12043,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.35">
       <c r="C44" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.35">
       <c r="C45" t="s">
         <v>0</v>
       </c>
@@ -12033,7 +12092,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
         <v>18</v>
       </c>
@@ -12080,7 +12139,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
         <v>19</v>
       </c>
@@ -12127,7 +12186,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
         <v>20</v>
       </c>
@@ -12174,7 +12233,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
         <v>29</v>
       </c>
@@ -12221,7 +12280,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B50" t="s">
         <v>47</v>
       </c>
@@ -12268,7 +12327,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
         <v>48</v>
       </c>
@@ -12315,7 +12374,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B52" t="s">
         <v>24</v>
       </c>
@@ -12362,7 +12421,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B53" t="s">
         <v>30</v>
       </c>
@@ -12409,7 +12468,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B54" t="s">
         <v>32</v>
       </c>
@@ -12456,7 +12515,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="55" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B55" t="s">
         <v>49</v>
       </c>
@@ -12503,7 +12562,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="56" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B56" t="s">
         <v>50</v>
       </c>
@@ -12550,12 +12609,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:16" x14ac:dyDescent="0.35">
       <c r="C58" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="59" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:16" x14ac:dyDescent="0.35">
       <c r="C59" t="s">
         <v>0</v>
       </c>
@@ -12599,7 +12658,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B60" t="s">
         <v>18</v>
       </c>
@@ -12646,7 +12705,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="61" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B61" t="s">
         <v>19</v>
       </c>
@@ -12693,7 +12752,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="62" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B62" t="s">
         <v>20</v>
       </c>
@@ -12740,7 +12799,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B63" t="s">
         <v>29</v>
       </c>
@@ -12787,7 +12846,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="64" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B64" t="s">
         <v>47</v>
       </c>
@@ -12834,7 +12893,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B65" t="s">
         <v>48</v>
       </c>
@@ -12881,7 +12940,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B66" t="s">
         <v>24</v>
       </c>
@@ -12928,7 +12987,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B67" t="s">
         <v>30</v>
       </c>
@@ -12975,7 +13034,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B68" t="s">
         <v>32</v>
       </c>
@@ -13022,7 +13081,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B69" t="s">
         <v>49</v>
       </c>
@@ -13069,7 +13128,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B70" t="s">
         <v>50</v>
       </c>
@@ -13116,12 +13175,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:16" x14ac:dyDescent="0.35">
       <c r="C72" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.35">
       <c r="C73" t="s">
         <v>0</v>
       </c>
@@ -13165,7 +13224,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B74" t="s">
         <v>18</v>
       </c>
@@ -13212,7 +13271,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B75" t="s">
         <v>19</v>
       </c>
@@ -13259,7 +13318,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B76" t="s">
         <v>20</v>
       </c>
@@ -13306,7 +13365,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B77" t="s">
         <v>29</v>
       </c>
@@ -13353,7 +13412,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="78" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B78" t="s">
         <v>47</v>
       </c>
@@ -13400,7 +13459,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B79" t="s">
         <v>48</v>
       </c>
@@ -13447,7 +13506,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B80" t="s">
         <v>24</v>
       </c>
@@ -13494,7 +13553,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="81" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B81" t="s">
         <v>30</v>
       </c>
@@ -13541,7 +13600,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B82" t="s">
         <v>32</v>
       </c>
@@ -13588,7 +13647,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="83" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B83" t="s">
         <v>49</v>
       </c>
@@ -13635,7 +13694,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="84" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B84" t="s">
         <v>50</v>
       </c>
@@ -13682,12 +13741,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:16" x14ac:dyDescent="0.35">
       <c r="C86" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="87" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:16" x14ac:dyDescent="0.35">
       <c r="C87" t="s">
         <v>0</v>
       </c>
@@ -13731,7 +13790,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B88" t="s">
         <v>18</v>
       </c>
@@ -13778,7 +13837,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="89" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B89" t="s">
         <v>19</v>
       </c>
@@ -13825,7 +13884,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="90" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B90" t="s">
         <v>20</v>
       </c>
@@ -13872,7 +13931,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="91" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B91" t="s">
         <v>29</v>
       </c>
@@ -13919,7 +13978,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="92" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B92" t="s">
         <v>47</v>
       </c>
@@ -13966,7 +14025,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="93" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B93" t="s">
         <v>48</v>
       </c>
@@ -14013,7 +14072,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="94" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B94" t="s">
         <v>24</v>
       </c>
@@ -14060,7 +14119,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="95" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B95" t="s">
         <v>30</v>
       </c>
@@ -14107,7 +14166,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="96" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B96" t="s">
         <v>32</v>
       </c>
@@ -14154,7 +14213,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="97" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B97" t="s">
         <v>49</v>
       </c>
@@ -14201,7 +14260,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="98" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B98" t="s">
         <v>50</v>
       </c>
@@ -14248,12 +14307,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="100" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:16" x14ac:dyDescent="0.35">
       <c r="C100" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="101" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:16" x14ac:dyDescent="0.35">
       <c r="C101" t="s">
         <v>0</v>
       </c>
@@ -14297,7 +14356,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B102" t="s">
         <v>18</v>
       </c>
@@ -14344,7 +14403,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="103" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B103" t="s">
         <v>19</v>
       </c>
@@ -14391,7 +14450,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="104" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B104" t="s">
         <v>20</v>
       </c>
@@ -14438,7 +14497,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="105" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B105" t="s">
         <v>29</v>
       </c>
@@ -14485,7 +14544,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="106" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B106" t="s">
         <v>47</v>
       </c>
@@ -14532,7 +14591,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="107" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B107" t="s">
         <v>48</v>
       </c>
@@ -14579,7 +14638,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="108" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B108" t="s">
         <v>24</v>
       </c>
@@ -14626,7 +14685,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="109" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B109" t="s">
         <v>30</v>
       </c>
@@ -14673,7 +14732,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="110" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B110" t="s">
         <v>32</v>
       </c>
@@ -14720,7 +14779,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="111" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B111" t="s">
         <v>49</v>
       </c>
@@ -14767,7 +14826,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="112" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B112" t="s">
         <v>50</v>
       </c>
@@ -14814,12 +14873,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="114" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:16" x14ac:dyDescent="0.35">
       <c r="C114" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="115" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:16" x14ac:dyDescent="0.35">
       <c r="C115" t="s">
         <v>0</v>
       </c>
@@ -14863,7 +14922,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="116" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B116" t="s">
         <v>18</v>
       </c>
@@ -14910,7 +14969,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="117" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B117" t="s">
         <v>19</v>
       </c>
@@ -14957,7 +15016,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="118" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B118" t="s">
         <v>20</v>
       </c>
@@ -15004,7 +15063,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="119" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B119" t="s">
         <v>29</v>
       </c>
@@ -15051,7 +15110,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="120" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B120" t="s">
         <v>47</v>
       </c>
@@ -15098,7 +15157,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="121" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B121" t="s">
         <v>48</v>
       </c>
@@ -15145,7 +15204,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="122" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B122" t="s">
         <v>24</v>
       </c>
@@ -15192,7 +15251,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="123" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B123" t="s">
         <v>30</v>
       </c>
@@ -15239,7 +15298,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="124" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B124" t="s">
         <v>32</v>
       </c>
@@ -15286,7 +15345,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="125" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B125" t="s">
         <v>49</v>
       </c>
@@ -15333,7 +15392,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="126" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B126" t="s">
         <v>50</v>
       </c>
@@ -15380,12 +15439,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="128" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:16" x14ac:dyDescent="0.35">
       <c r="C128" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="129" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:16" x14ac:dyDescent="0.35">
       <c r="C129" t="s">
         <v>0</v>
       </c>
@@ -15429,7 +15488,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="130" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B130" t="s">
         <v>18</v>
       </c>
@@ -15476,7 +15535,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="131" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B131" t="s">
         <v>19</v>
       </c>
@@ -15523,7 +15582,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="132" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B132" t="s">
         <v>20</v>
       </c>
@@ -15570,7 +15629,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="133" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B133" t="s">
         <v>29</v>
       </c>
@@ -15617,7 +15676,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="134" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B134" t="s">
         <v>47</v>
       </c>
@@ -15664,7 +15723,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="135" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B135" t="s">
         <v>48</v>
       </c>
@@ -15711,7 +15770,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="136" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B136" t="s">
         <v>24</v>
       </c>
@@ -15758,7 +15817,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="137" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B137" t="s">
         <v>30</v>
       </c>
@@ -15805,7 +15864,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="138" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B138" t="s">
         <v>32</v>
       </c>
@@ -15852,7 +15911,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="139" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B139" t="s">
         <v>49</v>
       </c>
@@ -15899,7 +15958,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="140" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B140" t="s">
         <v>50</v>
       </c>
@@ -15946,12 +16005,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="142" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:16" x14ac:dyDescent="0.35">
       <c r="C142" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="143" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:16" x14ac:dyDescent="0.35">
       <c r="C143" t="s">
         <v>0</v>
       </c>
@@ -15995,7 +16054,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="144" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B144" t="s">
         <v>18</v>
       </c>
@@ -16042,7 +16101,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="145" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B145" t="s">
         <v>19</v>
       </c>
@@ -16089,7 +16148,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="146" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B146" t="s">
         <v>20</v>
       </c>
@@ -16136,7 +16195,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="147" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B147" t="s">
         <v>29</v>
       </c>
@@ -16183,7 +16242,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="148" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B148" t="s">
         <v>47</v>
       </c>
@@ -16230,7 +16289,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="149" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B149" t="s">
         <v>48</v>
       </c>
@@ -16277,7 +16336,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="150" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B150" t="s">
         <v>24</v>
       </c>
@@ -16324,7 +16383,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="151" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B151" t="s">
         <v>30</v>
       </c>
@@ -16371,7 +16430,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="152" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B152" t="s">
         <v>32</v>
       </c>
@@ -16418,7 +16477,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="153" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B153" t="s">
         <v>49</v>
       </c>
@@ -16465,7 +16524,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="154" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B154" t="s">
         <v>50</v>
       </c>
@@ -16512,12 +16571,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="156" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:16" x14ac:dyDescent="0.35">
       <c r="C156" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="157" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:16" x14ac:dyDescent="0.35">
       <c r="C157" t="s">
         <v>0</v>
       </c>
@@ -16561,7 +16620,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="158" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B158" t="s">
         <v>18</v>
       </c>
@@ -16608,7 +16667,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="159" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B159" t="s">
         <v>19</v>
       </c>
@@ -16655,7 +16714,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="160" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B160" t="s">
         <v>20</v>
       </c>
@@ -16702,7 +16761,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="161" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B161" t="s">
         <v>29</v>
       </c>
@@ -16749,7 +16808,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="162" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B162" t="s">
         <v>47</v>
       </c>
@@ -16796,7 +16855,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="163" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B163" t="s">
         <v>48</v>
       </c>
@@ -16843,7 +16902,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="164" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B164" t="s">
         <v>24</v>
       </c>
@@ -16890,7 +16949,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="165" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B165" t="s">
         <v>30</v>
       </c>
@@ -16937,7 +16996,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="166" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B166" t="s">
         <v>32</v>
       </c>
@@ -16984,7 +17043,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="167" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B167" t="s">
         <v>49</v>
       </c>
@@ -17031,7 +17090,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="168" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B168" t="s">
         <v>50</v>
       </c>
@@ -17092,25 +17151,25 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1796875" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="C2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="C3" t="s">
         <v>0</v>
       </c>
@@ -17154,7 +17213,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>18</v>
       </c>
@@ -17201,7 +17260,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>19</v>
       </c>
@@ -17248,7 +17307,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>20</v>
       </c>
@@ -17295,7 +17354,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>29</v>
       </c>
@@ -17342,7 +17401,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>47</v>
       </c>
@@ -17389,7 +17448,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>61</v>
       </c>
@@ -17436,7 +17495,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>52</v>
       </c>
@@ -17483,7 +17542,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>53</v>
       </c>
@@ -17530,7 +17589,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>54</v>
       </c>
@@ -17577,7 +17636,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>55</v>
       </c>
@@ -17624,7 +17683,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>56</v>
       </c>
@@ -17671,7 +17730,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>57</v>
       </c>
@@ -17718,7 +17777,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>58</v>
       </c>
@@ -17765,7 +17824,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>59</v>
       </c>
@@ -17812,7 +17871,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>48</v>
       </c>
@@ -17859,7 +17918,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>24</v>
       </c>
@@ -17906,7 +17965,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>30</v>
       </c>
@@ -17953,7 +18012,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" s="6"/>
       <c r="B21" t="s">
         <v>32</v>
@@ -18001,7 +18060,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>60</v>
       </c>
@@ -18048,7 +18107,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>50</v>
       </c>
@@ -18095,12 +18154,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="C25" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="C26" t="s">
         <v>0</v>
       </c>
@@ -18144,7 +18203,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>18</v>
       </c>
@@ -18191,7 +18250,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>19</v>
       </c>
@@ -18238,7 +18297,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>20</v>
       </c>
@@ -18285,7 +18344,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>29</v>
       </c>
@@ -18332,7 +18391,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>47</v>
       </c>
@@ -18379,7 +18438,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>61</v>
       </c>
@@ -18426,7 +18485,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
         <v>52</v>
       </c>
@@ -18473,7 +18532,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
         <v>53</v>
       </c>
@@ -18520,7 +18579,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
         <v>54</v>
       </c>
@@ -18567,7 +18626,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
         <v>55</v>
       </c>
@@ -18614,7 +18673,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
         <v>56</v>
       </c>
@@ -18661,7 +18720,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
         <v>57</v>
       </c>
@@ -18708,7 +18767,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
         <v>58</v>
       </c>
@@ -18755,7 +18814,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
         <v>59</v>
       </c>
@@ -18802,7 +18861,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
         <v>48</v>
       </c>
@@ -18849,7 +18908,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
         <v>24</v>
       </c>
@@ -18896,7 +18955,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
         <v>30</v>
       </c>
@@ -18943,7 +19002,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A44" s="6"/>
       <c r="B44" t="s">
         <v>32</v>
@@ -18991,7 +19050,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
         <v>60</v>
       </c>
@@ -19038,7 +19097,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
         <v>50</v>
       </c>
@@ -19085,12 +19144,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
       <c r="C48" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:16" x14ac:dyDescent="0.35">
       <c r="C49" t="s">
         <v>0</v>
       </c>
@@ -19134,7 +19193,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B50" t="s">
         <v>18</v>
       </c>
@@ -19181,7 +19240,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
         <v>19</v>
       </c>
@@ -19228,7 +19287,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B52" t="s">
         <v>20</v>
       </c>
@@ -19275,7 +19334,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B53" t="s">
         <v>29</v>
       </c>
@@ -19322,7 +19381,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B54" t="s">
         <v>47</v>
       </c>
@@ -19369,7 +19428,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B55" t="s">
         <v>61</v>
       </c>
@@ -19416,7 +19475,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B56" t="s">
         <v>52</v>
       </c>
@@ -19463,7 +19522,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B57" t="s">
         <v>53</v>
       </c>
@@ -19510,7 +19569,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B58" t="s">
         <v>54</v>
       </c>
@@ -19557,7 +19616,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B59" t="s">
         <v>55</v>
       </c>
@@ -19604,7 +19663,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B60" t="s">
         <v>56</v>
       </c>
@@ -19651,7 +19710,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B61" t="s">
         <v>57</v>
       </c>
@@ -19698,7 +19757,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B62" t="s">
         <v>58</v>
       </c>
@@ -19745,7 +19804,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B63" t="s">
         <v>59</v>
       </c>
@@ -19792,7 +19851,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B64" t="s">
         <v>48</v>
       </c>
@@ -19839,7 +19898,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B65" t="s">
         <v>24</v>
       </c>
@@ -19886,7 +19945,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B66" t="s">
         <v>30</v>
       </c>
@@ -19933,7 +19992,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A67" s="6"/>
       <c r="B67" t="s">
         <v>32</v>
@@ -19981,7 +20040,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B68" t="s">
         <v>60</v>
       </c>
@@ -20028,7 +20087,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B69" t="s">
         <v>50</v>
       </c>
@@ -20075,12 +20134,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
       <c r="C71" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
       <c r="C72" t="s">
         <v>0</v>
       </c>
@@ -20124,7 +20183,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B73" t="s">
         <v>18</v>
       </c>
@@ -20171,7 +20230,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B74" t="s">
         <v>19</v>
       </c>
@@ -20218,7 +20277,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B75" t="s">
         <v>20</v>
       </c>
@@ -20265,7 +20324,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B76" t="s">
         <v>29</v>
       </c>
@@ -20312,7 +20371,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B77" t="s">
         <v>47</v>
       </c>
@@ -20359,7 +20418,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B78" t="s">
         <v>61</v>
       </c>
@@ -20406,7 +20465,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B79" t="s">
         <v>52</v>
       </c>
@@ -20453,7 +20512,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B80" t="s">
         <v>53</v>
       </c>
@@ -20500,7 +20559,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B81" t="s">
         <v>54</v>
       </c>
@@ -20547,7 +20606,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B82" t="s">
         <v>55</v>
       </c>
@@ -20594,7 +20653,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B83" t="s">
         <v>56</v>
       </c>
@@ -20641,7 +20700,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B84" t="s">
         <v>57</v>
       </c>
@@ -20688,7 +20747,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B85" t="s">
         <v>58</v>
       </c>
@@ -20735,7 +20794,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B86" t="s">
         <v>59</v>
       </c>
@@ -20782,7 +20841,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B87" t="s">
         <v>48</v>
       </c>
@@ -20829,7 +20888,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B88" t="s">
         <v>24</v>
       </c>
@@ -20876,7 +20935,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B89" t="s">
         <v>30</v>
       </c>
@@ -20923,7 +20982,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A90" s="6"/>
       <c r="B90" t="s">
         <v>32</v>
@@ -20971,7 +21030,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B91" t="s">
         <v>60</v>
       </c>
@@ -21018,7 +21077,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B92" t="s">
         <v>50</v>
       </c>
@@ -21065,12 +21124,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.35">
       <c r="C94" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.35">
       <c r="C95" t="s">
         <v>0</v>
       </c>
@@ -21114,7 +21173,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B96" t="s">
         <v>18</v>
       </c>
@@ -21161,7 +21220,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B97" t="s">
         <v>19</v>
       </c>
@@ -21208,7 +21267,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B98" t="s">
         <v>20</v>
       </c>
@@ -21255,7 +21314,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="99" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B99" t="s">
         <v>29</v>
       </c>
@@ -21302,7 +21361,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="100" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B100" t="s">
         <v>47</v>
       </c>
@@ -21349,7 +21408,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="101" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B101" t="s">
         <v>61</v>
       </c>
@@ -21396,7 +21455,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="102" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B102" t="s">
         <v>52</v>
       </c>
@@ -21443,7 +21502,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B103" t="s">
         <v>53</v>
       </c>
@@ -21490,7 +21549,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="104" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B104" t="s">
         <v>54</v>
       </c>
@@ -21537,7 +21596,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="105" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B105" t="s">
         <v>55</v>
       </c>
@@ -21584,7 +21643,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="106" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B106" t="s">
         <v>56</v>
       </c>
@@ -21631,7 +21690,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B107" t="s">
         <v>57</v>
       </c>
@@ -21678,7 +21737,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="108" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B108" t="s">
         <v>58</v>
       </c>
@@ -21725,7 +21784,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="109" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B109" t="s">
         <v>59</v>
       </c>
@@ -21772,7 +21831,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="110" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B110" t="s">
         <v>48</v>
       </c>
@@ -21819,7 +21878,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="111" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B111" t="s">
         <v>24</v>
       </c>
@@ -21866,7 +21925,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="112" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B112" t="s">
         <v>30</v>
       </c>
@@ -21913,7 +21972,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A113" s="6"/>
       <c r="B113" t="s">
         <v>32</v>
@@ -21961,7 +22020,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B114" t="s">
         <v>60</v>
       </c>
@@ -22008,7 +22067,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B115" t="s">
         <v>50</v>
       </c>
@@ -22055,12 +22114,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.35">
       <c r="C117" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.35">
       <c r="C118" t="s">
         <v>0</v>
       </c>
@@ -22104,7 +22163,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B119" t="s">
         <v>18</v>
       </c>
@@ -22151,7 +22210,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B120" t="s">
         <v>19</v>
       </c>
@@ -22198,7 +22257,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B121" t="s">
         <v>20</v>
       </c>
@@ -22245,7 +22304,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B122" t="s">
         <v>29</v>
       </c>
@@ -22292,7 +22351,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B123" t="s">
         <v>47</v>
       </c>
@@ -22339,7 +22398,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B124" t="s">
         <v>61</v>
       </c>
@@ -22386,7 +22445,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B125" t="s">
         <v>52</v>
       </c>
@@ -22433,7 +22492,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B126" t="s">
         <v>53</v>
       </c>
@@ -22480,7 +22539,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B127" t="s">
         <v>54</v>
       </c>
@@ -22527,7 +22586,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B128" t="s">
         <v>55</v>
       </c>
@@ -22574,7 +22633,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B129" t="s">
         <v>56</v>
       </c>
@@ -22621,7 +22680,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B130" t="s">
         <v>57</v>
       </c>
@@ -22668,7 +22727,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B131" t="s">
         <v>58</v>
       </c>
@@ -22715,7 +22774,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B132" t="s">
         <v>59</v>
       </c>
@@ -22762,7 +22821,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B133" t="s">
         <v>48</v>
       </c>
@@ -22809,7 +22868,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B134" t="s">
         <v>24</v>
       </c>
@@ -22856,7 +22915,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B135" t="s">
         <v>30</v>
       </c>
@@ -22903,7 +22962,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A136" s="6"/>
       <c r="B136" t="s">
         <v>32</v>
@@ -22951,7 +23010,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B137" t="s">
         <v>60</v>
       </c>
@@ -22998,7 +23057,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B138" t="s">
         <v>50</v>
       </c>
@@ -23045,12 +23104,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.35">
       <c r="C140" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.35">
       <c r="C141" t="s">
         <v>0</v>
       </c>
@@ -23094,7 +23153,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B142" t="s">
         <v>18</v>
       </c>
@@ -23141,7 +23200,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B143" t="s">
         <v>19</v>
       </c>
@@ -23188,7 +23247,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B144" t="s">
         <v>20</v>
       </c>
@@ -23235,7 +23294,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B145" t="s">
         <v>29</v>
       </c>
@@ -23282,7 +23341,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B146" t="s">
         <v>47</v>
       </c>
@@ -23329,7 +23388,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B147" t="s">
         <v>61</v>
       </c>
@@ -23376,7 +23435,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B148" t="s">
         <v>52</v>
       </c>
@@ -23423,7 +23482,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B149" t="s">
         <v>53</v>
       </c>
@@ -23470,7 +23529,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B150" t="s">
         <v>54</v>
       </c>
@@ -23517,7 +23576,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B151" t="s">
         <v>55</v>
       </c>
@@ -23564,7 +23623,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B152" t="s">
         <v>56</v>
       </c>
@@ -23611,7 +23670,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B153" t="s">
         <v>57</v>
       </c>
@@ -23658,7 +23717,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B154" t="s">
         <v>58</v>
       </c>
@@ -23705,7 +23764,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B155" t="s">
         <v>59</v>
       </c>
@@ -23752,7 +23811,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B156" t="s">
         <v>48</v>
       </c>
@@ -23799,7 +23858,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B157" t="s">
         <v>24</v>
       </c>
@@ -23846,7 +23905,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B158" t="s">
         <v>30</v>
       </c>
@@ -23893,7 +23952,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A159" s="6"/>
       <c r="B159" t="s">
         <v>32</v>
@@ -23941,7 +24000,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B160" t="s">
         <v>60</v>
       </c>
@@ -23988,7 +24047,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="161" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B161" t="s">
         <v>50</v>
       </c>
@@ -24035,12 +24094,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="163" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:16" x14ac:dyDescent="0.35">
       <c r="C163" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="164" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:16" x14ac:dyDescent="0.35">
       <c r="C164" t="s">
         <v>0</v>
       </c>
@@ -24084,7 +24143,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="165" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B165" t="s">
         <v>18</v>
       </c>
@@ -24131,7 +24190,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="166" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B166" t="s">
         <v>19</v>
       </c>
@@ -24178,7 +24237,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="167" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B167" t="s">
         <v>20</v>
       </c>
@@ -24225,7 +24284,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="168" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B168" t="s">
         <v>29</v>
       </c>
@@ -24272,7 +24331,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="169" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B169" t="s">
         <v>47</v>
       </c>
@@ -24319,7 +24378,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="170" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B170" t="s">
         <v>61</v>
       </c>
@@ -24366,7 +24425,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="171" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B171" t="s">
         <v>52</v>
       </c>
@@ -24413,7 +24472,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="172" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B172" t="s">
         <v>53</v>
       </c>
@@ -24460,7 +24519,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="173" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B173" t="s">
         <v>54</v>
       </c>
@@ -24507,7 +24566,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="174" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B174" t="s">
         <v>55</v>
       </c>
@@ -24554,7 +24613,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="175" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B175" t="s">
         <v>56</v>
       </c>
@@ -24601,7 +24660,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="176" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B176" t="s">
         <v>57</v>
       </c>
@@ -24648,7 +24707,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B177" t="s">
         <v>58</v>
       </c>
@@ -24695,7 +24754,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B178" t="s">
         <v>59</v>
       </c>
@@ -24742,7 +24801,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B179" t="s">
         <v>48</v>
       </c>
@@ -24789,7 +24848,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B180" t="s">
         <v>24</v>
       </c>
@@ -24836,7 +24895,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B181" t="s">
         <v>30</v>
       </c>
@@ -24883,7 +24942,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A182" s="6"/>
       <c r="B182" t="s">
         <v>32</v>
@@ -24931,7 +24990,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B183" t="s">
         <v>60</v>
       </c>
@@ -24978,7 +25037,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B184" t="s">
         <v>50</v>
       </c>
@@ -25025,12 +25084,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:16" x14ac:dyDescent="0.35">
       <c r="C186" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:16" x14ac:dyDescent="0.35">
       <c r="C187" t="s">
         <v>0</v>
       </c>
@@ -25074,7 +25133,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B188" t="s">
         <v>18</v>
       </c>
@@ -25121,7 +25180,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B189" t="s">
         <v>19</v>
       </c>
@@ -25168,7 +25227,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B190" t="s">
         <v>20</v>
       </c>
@@ -25215,7 +25274,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B191" t="s">
         <v>29</v>
       </c>
@@ -25262,7 +25321,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B192" t="s">
         <v>47</v>
       </c>
@@ -25309,7 +25368,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B193" t="s">
         <v>61</v>
       </c>
@@ -25356,7 +25415,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B194" t="s">
         <v>52</v>
       </c>
@@ -25403,7 +25462,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B195" t="s">
         <v>53</v>
       </c>
@@ -25450,7 +25509,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B196" t="s">
         <v>54</v>
       </c>
@@ -25497,7 +25556,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B197" t="s">
         <v>55</v>
       </c>
@@ -25544,7 +25603,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B198" t="s">
         <v>56</v>
       </c>
@@ -25591,7 +25650,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B199" t="s">
         <v>57</v>
       </c>
@@ -25638,7 +25697,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B200" t="s">
         <v>58</v>
       </c>
@@ -25685,7 +25744,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B201" t="s">
         <v>59</v>
       </c>
@@ -25732,7 +25791,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B202" t="s">
         <v>48</v>
       </c>
@@ -25779,7 +25838,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B203" t="s">
         <v>24</v>
       </c>
@@ -25826,7 +25885,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B204" t="s">
         <v>30</v>
       </c>
@@ -25873,7 +25932,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A205" s="6"/>
       <c r="B205" t="s">
         <v>32</v>
@@ -25921,7 +25980,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B206" t="s">
         <v>60</v>
       </c>
@@ -25968,7 +26027,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B207" t="s">
         <v>50</v>
       </c>
@@ -26015,12 +26074,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="209" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:16" x14ac:dyDescent="0.35">
       <c r="C209" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="210" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:16" x14ac:dyDescent="0.35">
       <c r="C210" t="s">
         <v>0</v>
       </c>
@@ -26064,7 +26123,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="211" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B211" t="s">
         <v>18</v>
       </c>
@@ -26111,7 +26170,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="212" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B212" t="s">
         <v>19</v>
       </c>
@@ -26158,7 +26217,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="213" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B213" t="s">
         <v>20</v>
       </c>
@@ -26205,7 +26264,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="214" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B214" t="s">
         <v>29</v>
       </c>
@@ -26252,7 +26311,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="215" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B215" t="s">
         <v>47</v>
       </c>
@@ -26299,7 +26358,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="216" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B216" t="s">
         <v>61</v>
       </c>
@@ -26346,7 +26405,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="217" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B217" t="s">
         <v>52</v>
       </c>
@@ -26393,7 +26452,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="218" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B218" t="s">
         <v>53</v>
       </c>
@@ -26440,7 +26499,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="219" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B219" t="s">
         <v>54</v>
       </c>
@@ -26487,7 +26546,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="220" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B220" t="s">
         <v>55</v>
       </c>
@@ -26534,7 +26593,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="221" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B221" t="s">
         <v>56</v>
       </c>
@@ -26581,7 +26640,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="222" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B222" t="s">
         <v>57</v>
       </c>
@@ -26628,7 +26687,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="223" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B223" t="s">
         <v>58</v>
       </c>
@@ -26675,7 +26734,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="224" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B224" t="s">
         <v>59</v>
       </c>
@@ -26722,7 +26781,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B225" t="s">
         <v>48</v>
       </c>
@@ -26769,7 +26828,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B226" t="s">
         <v>24</v>
       </c>
@@ -26816,7 +26875,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="227" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B227" t="s">
         <v>30</v>
       </c>
@@ -26863,7 +26922,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="228" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A228" s="6"/>
       <c r="B228" t="s">
         <v>32</v>
@@ -26911,7 +26970,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="229" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B229" t="s">
         <v>60</v>
       </c>
@@ -26958,7 +27017,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="230" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B230" t="s">
         <v>50</v>
       </c>
@@ -27005,12 +27064,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="232" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:16" x14ac:dyDescent="0.35">
       <c r="C232" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="233" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:16" x14ac:dyDescent="0.35">
       <c r="C233" t="s">
         <v>0</v>
       </c>
@@ -27054,7 +27113,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="234" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B234" t="s">
         <v>18</v>
       </c>
@@ -27101,7 +27160,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="235" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B235" t="s">
         <v>19</v>
       </c>
@@ -27148,7 +27207,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="236" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B236" t="s">
         <v>20</v>
       </c>
@@ -27195,7 +27254,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="237" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B237" t="s">
         <v>29</v>
       </c>
@@ -27242,7 +27301,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="238" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B238" t="s">
         <v>47</v>
       </c>
@@ -27289,7 +27348,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="239" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B239" t="s">
         <v>61</v>
       </c>
@@ -27336,7 +27395,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="240" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B240" t="s">
         <v>52</v>
       </c>
@@ -27383,7 +27442,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="241" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B241" t="s">
         <v>53</v>
       </c>
@@ -27430,7 +27489,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="242" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B242" t="s">
         <v>54</v>
       </c>
@@ -27477,7 +27536,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="243" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B243" t="s">
         <v>55</v>
       </c>
@@ -27524,7 +27583,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="244" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B244" t="s">
         <v>56</v>
       </c>
@@ -27571,7 +27630,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="245" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B245" t="s">
         <v>57</v>
       </c>
@@ -27618,7 +27677,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="246" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B246" t="s">
         <v>58</v>
       </c>
@@ -27665,7 +27724,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="247" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B247" t="s">
         <v>59</v>
       </c>
@@ -27712,7 +27771,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="248" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B248" t="s">
         <v>48</v>
       </c>
@@ -27759,7 +27818,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="249" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B249" t="s">
         <v>24</v>
       </c>
@@ -27806,7 +27865,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="250" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B250" t="s">
         <v>30</v>
       </c>
@@ -27853,7 +27912,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="251" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A251" s="6"/>
       <c r="B251" t="s">
         <v>32</v>
@@ -27901,7 +27960,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="252" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B252" t="s">
         <v>60</v>
       </c>
@@ -27948,7 +28007,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="253" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B253" t="s">
         <v>50</v>
       </c>
@@ -27995,12 +28054,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="255" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:16" x14ac:dyDescent="0.35">
       <c r="C255" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="256" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:16" x14ac:dyDescent="0.35">
       <c r="C256" t="s">
         <v>0</v>
       </c>
@@ -28044,7 +28103,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="257" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B257" t="s">
         <v>18</v>
       </c>
@@ -28091,7 +28150,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="258" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B258" t="s">
         <v>19</v>
       </c>
@@ -28138,7 +28197,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="259" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B259" t="s">
         <v>20</v>
       </c>
@@ -28185,7 +28244,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="260" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B260" t="s">
         <v>29</v>
       </c>
@@ -28232,7 +28291,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="261" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B261" t="s">
         <v>47</v>
       </c>
@@ -28279,7 +28338,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="262" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B262" t="s">
         <v>61</v>
       </c>
@@ -28326,7 +28385,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="263" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B263" t="s">
         <v>52</v>
       </c>
@@ -28373,7 +28432,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="264" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B264" t="s">
         <v>53</v>
       </c>
@@ -28420,7 +28479,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="265" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B265" t="s">
         <v>54</v>
       </c>
@@ -28467,7 +28526,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="266" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B266" t="s">
         <v>55</v>
       </c>
@@ -28514,7 +28573,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="267" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B267" t="s">
         <v>56</v>
       </c>
@@ -28561,7 +28620,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="268" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B268" t="s">
         <v>57</v>
       </c>
@@ -28608,7 +28667,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="269" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B269" t="s">
         <v>58</v>
       </c>
@@ -28655,7 +28714,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="270" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B270" t="s">
         <v>59</v>
       </c>
@@ -28702,7 +28761,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="271" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B271" t="s">
         <v>48</v>
       </c>
@@ -28749,7 +28808,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="272" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B272" t="s">
         <v>24</v>
       </c>
@@ -28796,7 +28855,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="273" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B273" t="s">
         <v>30</v>
       </c>
@@ -28843,7 +28902,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="274" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A274" s="6"/>
       <c r="B274" t="s">
         <v>32</v>
@@ -28891,7 +28950,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="275" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B275" t="s">
         <v>60</v>
       </c>
@@ -28938,7 +28997,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="276" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B276" t="s">
         <v>50</v>
       </c>
@@ -28985,7 +29044,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="277" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:16" x14ac:dyDescent="0.35">
       <c r="L277" s="8"/>
     </row>
   </sheetData>
@@ -29002,25 +29061,25 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="C2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="C3" t="s">
         <v>0</v>
       </c>
@@ -29064,7 +29123,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>18</v>
       </c>
@@ -29111,7 +29170,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>19</v>
       </c>
@@ -29158,7 +29217,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>20</v>
       </c>
@@ -29205,7 +29264,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>29</v>
       </c>
@@ -29252,7 +29311,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>63</v>
       </c>
@@ -29302,7 +29361,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>64</v>
       </c>
@@ -29349,7 +29408,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>47</v>
       </c>
@@ -29396,7 +29455,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>52</v>
       </c>
@@ -29443,7 +29502,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>53</v>
       </c>
@@ -29490,7 +29549,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>54</v>
       </c>
@@ -29537,7 +29596,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>61</v>
       </c>
@@ -29584,7 +29643,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>57</v>
       </c>
@@ -29631,7 +29690,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>55</v>
       </c>
@@ -29678,7 +29737,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>56</v>
       </c>
@@ -29725,7 +29784,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>48</v>
       </c>
@@ -29772,7 +29831,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>24</v>
       </c>
@@ -29819,7 +29878,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>26</v>
       </c>
@@ -29866,7 +29925,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>25</v>
       </c>
@@ -29913,7 +29972,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>28</v>
       </c>
@@ -29960,7 +30019,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>30</v>
       </c>
@@ -30007,7 +30066,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" s="6"/>
       <c r="B24" t="s">
         <v>65</v>
@@ -30055,7 +30114,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" s="6"/>
       <c r="B25" t="s">
         <v>31</v>
@@ -30103,7 +30162,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>66</v>
       </c>
@@ -30150,7 +30209,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>58</v>
       </c>
@@ -30197,7 +30256,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>67</v>
       </c>
@@ -30244,7 +30303,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>59</v>
       </c>
@@ -30291,7 +30350,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>49</v>
       </c>
@@ -30338,7 +30397,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>50</v>
       </c>
@@ -30385,7 +30444,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32" s="6"/>
       <c r="B32" t="s">
         <v>68</v>
@@ -30433,7 +30492,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
         <v>69</v>
       </c>
@@ -30480,12 +30539,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
       <c r="C35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
       <c r="C36" t="s">
         <v>0</v>
       </c>
@@ -30529,7 +30588,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
         <v>18</v>
       </c>
@@ -30576,7 +30635,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
         <v>19</v>
       </c>
@@ -30623,7 +30682,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
         <v>20</v>
       </c>
@@ -30670,7 +30729,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
         <v>29</v>
       </c>
@@ -30717,7 +30776,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A41" s="7" t="s">
         <v>63</v>
       </c>
@@ -30767,7 +30826,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
         <v>64</v>
       </c>
@@ -30814,7 +30873,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
         <v>47</v>
       </c>
@@ -30861,7 +30920,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
         <v>52</v>
       </c>
@@ -30908,7 +30967,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
         <v>53</v>
       </c>
@@ -30955,7 +31014,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
         <v>54</v>
       </c>
@@ -31002,7 +31061,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
         <v>61</v>
       </c>
@@ -31049,7 +31108,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
         <v>57</v>
       </c>
@@ -31096,7 +31155,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
         <v>55</v>
       </c>
@@ -31143,7 +31202,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B50" t="s">
         <v>56</v>
       </c>
@@ -31190,7 +31249,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
         <v>48</v>
       </c>
@@ -31237,7 +31296,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B52" t="s">
         <v>24</v>
       </c>
@@ -31284,7 +31343,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B53" t="s">
         <v>26</v>
       </c>
@@ -31331,7 +31390,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B54" t="s">
         <v>25</v>
       </c>
@@ -31378,7 +31437,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B55" t="s">
         <v>28</v>
       </c>
@@ -31425,7 +31484,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B56" t="s">
         <v>30</v>
       </c>
@@ -31472,7 +31531,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A57" s="6"/>
       <c r="B57" t="s">
         <v>65</v>
@@ -31520,7 +31579,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A58" s="6"/>
       <c r="B58" t="s">
         <v>31</v>
@@ -31568,7 +31627,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B59" t="s">
         <v>66</v>
       </c>
@@ -31615,7 +31674,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B60" t="s">
         <v>58</v>
       </c>
@@ -31662,7 +31721,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B61" t="s">
         <v>67</v>
       </c>
@@ -31709,7 +31768,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B62" t="s">
         <v>59</v>
       </c>
@@ -31756,7 +31815,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B63" t="s">
         <v>49</v>
       </c>
@@ -31803,7 +31862,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B64" t="s">
         <v>50</v>
       </c>
@@ -31850,7 +31909,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A65" s="6"/>
       <c r="B65" t="s">
         <v>68</v>
@@ -31898,7 +31957,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B66" t="s">
         <v>69</v>
       </c>
@@ -31945,12 +32004,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
       <c r="C68" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
       <c r="C69" t="s">
         <v>0</v>
       </c>
@@ -31994,7 +32053,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B70" t="s">
         <v>18</v>
       </c>
@@ -32041,7 +32100,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B71" t="s">
         <v>19</v>
       </c>
@@ -32088,7 +32147,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B72" t="s">
         <v>20</v>
       </c>
@@ -32135,7 +32194,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B73" t="s">
         <v>29</v>
       </c>
@@ -32182,7 +32241,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A74" s="7" t="s">
         <v>63</v>
       </c>
@@ -32232,7 +32291,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B75" t="s">
         <v>64</v>
       </c>
@@ -32279,7 +32338,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B76" t="s">
         <v>47</v>
       </c>
@@ -32326,7 +32385,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B77" t="s">
         <v>52</v>
       </c>
@@ -32373,7 +32432,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B78" t="s">
         <v>53</v>
       </c>
@@ -32420,7 +32479,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B79" t="s">
         <v>54</v>
       </c>
@@ -32467,7 +32526,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B80" t="s">
         <v>61</v>
       </c>
@@ -32514,7 +32573,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B81" t="s">
         <v>57</v>
       </c>
@@ -32561,7 +32620,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B82" t="s">
         <v>55</v>
       </c>
@@ -32608,7 +32667,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B83" t="s">
         <v>56</v>
       </c>
@@ -32655,7 +32714,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B84" t="s">
         <v>48</v>
       </c>
@@ -32702,7 +32761,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B85" t="s">
         <v>24</v>
       </c>
@@ -32749,7 +32808,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B86" t="s">
         <v>26</v>
       </c>
@@ -32796,7 +32855,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B87" t="s">
         <v>25</v>
       </c>
@@ -32843,7 +32902,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B88" t="s">
         <v>28</v>
       </c>
@@ -32890,7 +32949,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B89" t="s">
         <v>30</v>
       </c>
@@ -32937,7 +32996,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A90" s="6"/>
       <c r="B90" t="s">
         <v>65</v>
@@ -32985,7 +33044,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A91" s="6"/>
       <c r="B91" t="s">
         <v>31</v>
@@ -33033,7 +33092,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B92" t="s">
         <v>66</v>
       </c>
@@ -33080,7 +33139,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B93" t="s">
         <v>58</v>
       </c>
@@ -33127,7 +33186,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B94" t="s">
         <v>67</v>
       </c>
@@ -33174,7 +33233,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B95" t="s">
         <v>59</v>
       </c>
@@ -33221,7 +33280,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B96" t="s">
         <v>49</v>
       </c>
@@ -33268,7 +33327,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B97" t="s">
         <v>50</v>
       </c>
@@ -33315,7 +33374,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A98" s="6"/>
       <c r="B98" t="s">
         <v>68</v>
@@ -33363,7 +33422,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B99" t="s">
         <v>69</v>
       </c>
@@ -33410,12 +33469,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.35">
       <c r="C101" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.35">
       <c r="C102" t="s">
         <v>0</v>
       </c>
@@ -33459,7 +33518,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B103" t="s">
         <v>18</v>
       </c>
@@ -33506,7 +33565,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B104" t="s">
         <v>19</v>
       </c>
@@ -33553,7 +33612,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B105" t="s">
         <v>20</v>
       </c>
@@ -33600,7 +33659,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B106" t="s">
         <v>29</v>
       </c>
@@ -33647,7 +33706,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A107" s="7" t="s">
         <v>63</v>
       </c>
@@ -33697,7 +33756,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B108" t="s">
         <v>64</v>
       </c>
@@ -33744,7 +33803,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B109" t="s">
         <v>47</v>
       </c>
@@ -33791,7 +33850,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B110" t="s">
         <v>52</v>
       </c>
@@ -33838,7 +33897,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B111" t="s">
         <v>53</v>
       </c>
@@ -33885,7 +33944,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B112" t="s">
         <v>54</v>
       </c>
@@ -33932,7 +33991,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B113" t="s">
         <v>61</v>
       </c>
@@ -33979,7 +34038,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B114" t="s">
         <v>57</v>
       </c>
@@ -34026,7 +34085,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B115" t="s">
         <v>55</v>
       </c>
@@ -34073,7 +34132,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B116" t="s">
         <v>56</v>
       </c>
@@ -34120,7 +34179,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B117" t="s">
         <v>48</v>
       </c>
@@ -34167,7 +34226,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B118" t="s">
         <v>24</v>
       </c>
@@ -34214,7 +34273,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B119" t="s">
         <v>26</v>
       </c>
@@ -34261,7 +34320,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B120" t="s">
         <v>25</v>
       </c>
@@ -34308,7 +34367,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B121" t="s">
         <v>28</v>
       </c>
@@ -34355,7 +34414,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B122" t="s">
         <v>30</v>
       </c>
@@ -34402,7 +34461,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A123" s="6"/>
       <c r="B123" t="s">
         <v>65</v>
@@ -34450,7 +34509,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A124" s="6"/>
       <c r="B124" t="s">
         <v>31</v>
@@ -34498,7 +34557,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B125" t="s">
         <v>66</v>
       </c>
@@ -34545,7 +34604,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B126" t="s">
         <v>58</v>
       </c>
@@ -34592,7 +34651,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B127" t="s">
         <v>67</v>
       </c>
@@ -34639,7 +34698,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B128" t="s">
         <v>59</v>
       </c>
@@ -34686,7 +34745,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B129" t="s">
         <v>49</v>
       </c>
@@ -34733,7 +34792,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B130" t="s">
         <v>50</v>
       </c>
@@ -34780,7 +34839,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A131" s="6"/>
       <c r="B131" t="s">
         <v>68</v>
@@ -34828,7 +34887,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B132" t="s">
         <v>69</v>
       </c>
@@ -34875,12 +34934,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.35">
       <c r="C134" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.35">
       <c r="C135" t="s">
         <v>0</v>
       </c>
@@ -34924,7 +34983,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B136" t="s">
         <v>18</v>
       </c>
@@ -34971,7 +35030,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B137" t="s">
         <v>19</v>
       </c>
@@ -35018,7 +35077,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B138" t="s">
         <v>20</v>
       </c>
@@ -35065,7 +35124,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B139" t="s">
         <v>29</v>
       </c>
@@ -35112,7 +35171,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A140" s="7" t="s">
         <v>63</v>
       </c>
@@ -35162,7 +35221,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B141" t="s">
         <v>64</v>
       </c>
@@ -35209,7 +35268,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B142" t="s">
         <v>47</v>
       </c>
@@ -35256,7 +35315,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B143" t="s">
         <v>52</v>
       </c>
@@ -35303,7 +35362,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B144" t="s">
         <v>53</v>
       </c>
@@ -35350,7 +35409,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B145" t="s">
         <v>54</v>
       </c>
@@ -35397,7 +35456,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B146" t="s">
         <v>61</v>
       </c>
@@ -35444,7 +35503,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B147" t="s">
         <v>57</v>
       </c>
@@ -35491,7 +35550,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B148" t="s">
         <v>55</v>
       </c>
@@ -35538,7 +35597,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B149" t="s">
         <v>56</v>
       </c>
@@ -35585,7 +35644,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B150" t="s">
         <v>48</v>
       </c>
@@ -35632,7 +35691,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B151" t="s">
         <v>24</v>
       </c>
@@ -35679,7 +35738,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B152" t="s">
         <v>26</v>
       </c>
@@ -35726,7 +35785,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B153" t="s">
         <v>25</v>
       </c>
@@ -35773,7 +35832,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B154" t="s">
         <v>28</v>
       </c>
@@ -35820,7 +35879,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B155" t="s">
         <v>30</v>
       </c>
@@ -35867,7 +35926,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A156" s="6"/>
       <c r="B156" t="s">
         <v>65</v>
@@ -35915,7 +35974,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A157" s="6"/>
       <c r="B157" t="s">
         <v>31</v>
@@ -35963,7 +36022,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B158" t="s">
         <v>66</v>
       </c>
@@ -36010,7 +36069,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B159" t="s">
         <v>58</v>
       </c>
@@ -36057,7 +36116,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B160" t="s">
         <v>67</v>
       </c>
@@ -36104,7 +36163,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B161" t="s">
         <v>59</v>
       </c>
@@ -36151,7 +36210,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B162" t="s">
         <v>49</v>
       </c>
@@ -36198,7 +36257,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B163" t="s">
         <v>50</v>
       </c>
@@ -36245,7 +36304,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A164" s="6"/>
       <c r="B164" t="s">
         <v>68</v>
@@ -36293,7 +36352,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B165" t="s">
         <v>69</v>
       </c>
@@ -36340,12 +36399,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:16" x14ac:dyDescent="0.35">
       <c r="C167" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:16" x14ac:dyDescent="0.35">
       <c r="C168" t="s">
         <v>0</v>
       </c>
@@ -36389,7 +36448,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B169" t="s">
         <v>18</v>
       </c>
@@ -36436,7 +36495,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B170" t="s">
         <v>19</v>
       </c>
@@ -36483,7 +36542,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B171" t="s">
         <v>20</v>
       </c>
@@ -36530,7 +36589,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B172" t="s">
         <v>29</v>
       </c>
@@ -36577,7 +36636,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A173" s="7" t="s">
         <v>63</v>
       </c>
@@ -36627,7 +36686,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B174" t="s">
         <v>64</v>
       </c>
@@ -36674,7 +36733,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B175" t="s">
         <v>47</v>
       </c>
@@ -36721,7 +36780,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B176" t="s">
         <v>52</v>
       </c>
@@ -36768,7 +36827,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B177" t="s">
         <v>53</v>
       </c>
@@ -36815,7 +36874,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B178" t="s">
         <v>54</v>
       </c>
@@ -36862,7 +36921,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B179" t="s">
         <v>61</v>
       </c>
@@ -36909,7 +36968,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B180" t="s">
         <v>57</v>
       </c>
@@ -36956,7 +37015,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B181" t="s">
         <v>55</v>
       </c>
@@ -37003,7 +37062,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B182" t="s">
         <v>56</v>
       </c>
@@ -37050,7 +37109,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B183" t="s">
         <v>48</v>
       </c>
@@ -37097,7 +37156,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B184" t="s">
         <v>24</v>
       </c>
@@ -37144,7 +37203,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B185" t="s">
         <v>26</v>
       </c>
@@ -37191,7 +37250,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B186" t="s">
         <v>25</v>
       </c>
@@ -37238,7 +37297,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B187" t="s">
         <v>28</v>
       </c>
@@ -37285,7 +37344,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B188" t="s">
         <v>30</v>
       </c>
@@ -37332,7 +37391,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A189" s="6"/>
       <c r="B189" t="s">
         <v>65</v>
@@ -37380,7 +37439,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A190" s="6"/>
       <c r="B190" t="s">
         <v>31</v>
@@ -37428,7 +37487,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B191" t="s">
         <v>66</v>
       </c>
@@ -37475,7 +37534,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B192" t="s">
         <v>58</v>
       </c>
@@ -37522,7 +37581,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B193" t="s">
         <v>67</v>
       </c>
@@ -37569,7 +37628,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B194" t="s">
         <v>59</v>
       </c>
@@ -37616,7 +37675,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B195" t="s">
         <v>49</v>
       </c>
@@ -37663,7 +37722,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B196" t="s">
         <v>50</v>
       </c>
@@ -37710,7 +37769,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A197" s="6"/>
       <c r="B197" t="s">
         <v>68</v>
@@ -37758,7 +37817,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B198" t="s">
         <v>69</v>
       </c>
@@ -37805,12 +37864,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:16" x14ac:dyDescent="0.35">
       <c r="C200" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:16" x14ac:dyDescent="0.35">
       <c r="C201" t="s">
         <v>0</v>
       </c>
@@ -37854,7 +37913,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B202" t="s">
         <v>18</v>
       </c>
@@ -37901,7 +37960,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B203" t="s">
         <v>19</v>
       </c>
@@ -37948,7 +38007,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B204" t="s">
         <v>20</v>
       </c>
@@ -37995,7 +38054,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B205" t="s">
         <v>29</v>
       </c>
@@ -38042,7 +38101,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A206" s="7" t="s">
         <v>63</v>
       </c>
@@ -38092,7 +38151,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B207" t="s">
         <v>64</v>
       </c>
@@ -38139,7 +38198,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B208" t="s">
         <v>47</v>
       </c>
@@ -38186,7 +38245,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B209" t="s">
         <v>52</v>
       </c>
@@ -38233,7 +38292,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B210" t="s">
         <v>53</v>
       </c>
@@ -38280,7 +38339,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B211" t="s">
         <v>54</v>
       </c>
@@ -38327,7 +38386,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B212" t="s">
         <v>61</v>
       </c>
@@ -38374,7 +38433,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B213" t="s">
         <v>57</v>
       </c>
@@ -38421,7 +38480,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B214" t="s">
         <v>55</v>
       </c>
@@ -38468,7 +38527,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B215" t="s">
         <v>56</v>
       </c>
@@ -38515,7 +38574,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B216" t="s">
         <v>48</v>
       </c>
@@ -38562,7 +38621,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B217" t="s">
         <v>24</v>
       </c>
@@ -38609,7 +38668,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B218" t="s">
         <v>26</v>
       </c>
@@ -38656,7 +38715,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B219" t="s">
         <v>25</v>
       </c>
@@ -38703,7 +38762,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B220" t="s">
         <v>28</v>
       </c>
@@ -38750,7 +38809,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B221" t="s">
         <v>30</v>
       </c>
@@ -38797,7 +38856,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A222" s="6"/>
       <c r="B222" t="s">
         <v>65</v>
@@ -38845,7 +38904,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A223" s="6"/>
       <c r="B223" t="s">
         <v>31</v>
@@ -38893,7 +38952,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B224" t="s">
         <v>66</v>
       </c>
@@ -38940,7 +38999,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B225" t="s">
         <v>58</v>
       </c>
@@ -38987,7 +39046,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B226" t="s">
         <v>67</v>
       </c>
@@ -39034,7 +39093,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="227" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B227" t="s">
         <v>59</v>
       </c>
@@ -39081,7 +39140,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="228" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B228" t="s">
         <v>49</v>
       </c>
@@ -39128,7 +39187,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="229" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B229" t="s">
         <v>50</v>
       </c>
@@ -39175,7 +39234,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="230" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A230" s="6"/>
       <c r="B230" t="s">
         <v>68</v>
@@ -39223,7 +39282,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="231" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B231" t="s">
         <v>69</v>
       </c>
@@ -39270,12 +39329,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="233" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:16" x14ac:dyDescent="0.35">
       <c r="C233" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="234" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:16" x14ac:dyDescent="0.35">
       <c r="C234" t="s">
         <v>0</v>
       </c>
@@ -39319,7 +39378,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="235" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B235" t="s">
         <v>18</v>
       </c>
@@ -39366,7 +39425,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="236" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B236" t="s">
         <v>19</v>
       </c>
@@ -39413,7 +39472,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="237" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B237" t="s">
         <v>20</v>
       </c>
@@ -39460,7 +39519,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="238" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B238" t="s">
         <v>29</v>
       </c>
@@ -39507,7 +39566,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="239" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A239" s="7" t="s">
         <v>63</v>
       </c>
@@ -39557,7 +39616,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="240" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B240" t="s">
         <v>64</v>
       </c>
@@ -39604,7 +39663,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="241" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B241" t="s">
         <v>47</v>
       </c>
@@ -39651,7 +39710,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="242" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B242" t="s">
         <v>52</v>
       </c>
@@ -39698,7 +39757,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="243" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B243" t="s">
         <v>53</v>
       </c>
@@ -39745,7 +39804,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="244" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B244" t="s">
         <v>54</v>
       </c>
@@ -39792,7 +39851,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="245" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B245" t="s">
         <v>61</v>
       </c>
@@ -39839,7 +39898,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="246" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B246" t="s">
         <v>57</v>
       </c>
@@ -39886,7 +39945,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="247" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B247" t="s">
         <v>55</v>
       </c>
@@ -39933,7 +39992,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="248" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B248" t="s">
         <v>56</v>
       </c>
@@ -39980,7 +40039,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="249" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B249" t="s">
         <v>48</v>
       </c>
@@ -40027,7 +40086,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="250" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B250" t="s">
         <v>24</v>
       </c>
@@ -40074,7 +40133,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="251" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B251" t="s">
         <v>26</v>
       </c>
@@ -40121,7 +40180,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="252" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B252" t="s">
         <v>25</v>
       </c>
@@ -40168,7 +40227,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="253" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B253" t="s">
         <v>28</v>
       </c>
@@ -40215,7 +40274,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="254" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B254" t="s">
         <v>30</v>
       </c>
@@ -40262,7 +40321,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="255" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A255" s="6"/>
       <c r="B255" t="s">
         <v>65</v>
@@ -40310,7 +40369,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="256" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A256" s="6"/>
       <c r="B256" t="s">
         <v>31</v>
@@ -40358,7 +40417,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="257" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B257" t="s">
         <v>66</v>
       </c>
@@ -40405,7 +40464,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="258" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B258" t="s">
         <v>58</v>
       </c>
@@ -40452,7 +40511,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="259" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B259" t="s">
         <v>67</v>
       </c>
@@ -40499,7 +40558,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="260" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B260" t="s">
         <v>59</v>
       </c>
@@ -40546,7 +40605,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="261" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B261" t="s">
         <v>49</v>
       </c>
@@ -40593,7 +40652,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="262" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B262" t="s">
         <v>50</v>
       </c>
@@ -40640,7 +40699,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="263" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A263" s="6"/>
       <c r="B263" t="s">
         <v>68</v>
@@ -40688,7 +40747,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="264" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B264" t="s">
         <v>69</v>
       </c>
@@ -40735,12 +40794,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="266" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:16" x14ac:dyDescent="0.35">
       <c r="C266" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="267" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:16" x14ac:dyDescent="0.35">
       <c r="C267" t="s">
         <v>0</v>
       </c>
@@ -40784,7 +40843,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="268" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B268" t="s">
         <v>18</v>
       </c>
@@ -40831,7 +40890,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="269" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B269" t="s">
         <v>19</v>
       </c>
@@ -40878,7 +40937,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="270" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B270" t="s">
         <v>20</v>
       </c>
@@ -40925,7 +40984,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="271" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B271" t="s">
         <v>29</v>
       </c>
@@ -40972,7 +41031,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="272" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A272" s="7" t="s">
         <v>63</v>
       </c>
@@ -41022,7 +41081,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="273" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B273" t="s">
         <v>64</v>
       </c>
@@ -41069,7 +41128,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="274" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B274" t="s">
         <v>47</v>
       </c>
@@ -41116,7 +41175,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="275" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B275" t="s">
         <v>52</v>
       </c>
@@ -41163,7 +41222,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="276" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B276" t="s">
         <v>53</v>
       </c>
@@ -41210,7 +41269,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="277" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B277" t="s">
         <v>54</v>
       </c>
@@ -41257,7 +41316,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="278" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B278" t="s">
         <v>61</v>
       </c>
@@ -41304,7 +41363,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="279" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B279" t="s">
         <v>57</v>
       </c>
@@ -41351,7 +41410,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="280" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B280" t="s">
         <v>55</v>
       </c>
@@ -41398,7 +41457,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="281" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B281" t="s">
         <v>56</v>
       </c>
@@ -41445,7 +41504,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="282" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B282" t="s">
         <v>48</v>
       </c>
@@ -41492,7 +41551,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="283" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B283" t="s">
         <v>24</v>
       </c>
@@ -41539,7 +41598,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="284" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B284" t="s">
         <v>26</v>
       </c>
@@ -41586,7 +41645,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="285" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B285" t="s">
         <v>25</v>
       </c>
@@ -41633,7 +41692,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="286" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B286" t="s">
         <v>28</v>
       </c>
@@ -41680,7 +41739,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="287" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B287" t="s">
         <v>30</v>
       </c>
@@ -41727,7 +41786,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="288" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A288" s="6"/>
       <c r="B288" t="s">
         <v>65</v>
@@ -41775,7 +41834,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="289" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A289" s="6"/>
       <c r="B289" t="s">
         <v>31</v>
@@ -41823,7 +41882,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="290" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B290" t="s">
         <v>66</v>
       </c>
@@ -41870,7 +41929,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="291" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B291" t="s">
         <v>58</v>
       </c>
@@ -41917,7 +41976,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="292" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B292" t="s">
         <v>67</v>
       </c>
@@ -41964,7 +42023,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="293" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B293" t="s">
         <v>59</v>
       </c>
@@ -42011,7 +42070,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="294" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B294" t="s">
         <v>49</v>
       </c>
@@ -42058,7 +42117,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="295" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B295" t="s">
         <v>50</v>
       </c>
@@ -42105,7 +42164,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="296" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A296" s="6"/>
       <c r="B296" t="s">
         <v>68</v>
@@ -42153,7 +42212,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="297" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B297" t="s">
         <v>69</v>
       </c>
@@ -42200,12 +42259,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="299" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:16" x14ac:dyDescent="0.35">
       <c r="C299" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="300" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:16" x14ac:dyDescent="0.35">
       <c r="C300" t="s">
         <v>0</v>
       </c>
@@ -42249,7 +42308,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="301" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B301" t="s">
         <v>18</v>
       </c>
@@ -42296,7 +42355,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="302" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B302" t="s">
         <v>19</v>
       </c>
@@ -42343,7 +42402,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="303" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B303" t="s">
         <v>20</v>
       </c>
@@ -42390,7 +42449,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="304" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B304" t="s">
         <v>29</v>
       </c>
@@ -42437,7 +42496,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="305" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A305" s="7" t="s">
         <v>63</v>
       </c>
@@ -42487,7 +42546,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="306" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B306" t="s">
         <v>64</v>
       </c>
@@ -42534,7 +42593,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="307" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B307" t="s">
         <v>47</v>
       </c>
@@ -42581,7 +42640,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="308" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B308" t="s">
         <v>52</v>
       </c>
@@ -42628,7 +42687,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="309" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B309" t="s">
         <v>53</v>
       </c>
@@ -42675,7 +42734,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="310" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B310" t="s">
         <v>54</v>
       </c>
@@ -42722,7 +42781,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="311" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B311" t="s">
         <v>61</v>
       </c>
@@ -42769,7 +42828,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="312" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B312" t="s">
         <v>57</v>
       </c>
@@ -42816,7 +42875,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="313" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B313" t="s">
         <v>55</v>
       </c>
@@ -42863,7 +42922,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="314" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B314" t="s">
         <v>56</v>
       </c>
@@ -42910,7 +42969,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="315" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B315" t="s">
         <v>48</v>
       </c>
@@ -42957,7 +43016,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="316" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B316" t="s">
         <v>24</v>
       </c>
@@ -43004,7 +43063,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="317" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B317" t="s">
         <v>26</v>
       </c>
@@ -43051,7 +43110,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="318" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B318" t="s">
         <v>25</v>
       </c>
@@ -43098,7 +43157,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="319" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B319" t="s">
         <v>28</v>
       </c>
@@ -43145,7 +43204,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="320" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B320" t="s">
         <v>30</v>
       </c>
@@ -43192,7 +43251,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="321" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A321" s="6"/>
       <c r="B321" t="s">
         <v>65</v>
@@ -43240,7 +43299,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="322" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A322" s="6"/>
       <c r="B322" t="s">
         <v>31</v>
@@ -43288,7 +43347,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="323" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B323" t="s">
         <v>66</v>
       </c>
@@ -43335,7 +43394,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="324" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B324" t="s">
         <v>58</v>
       </c>
@@ -43382,7 +43441,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="325" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B325" t="s">
         <v>67</v>
       </c>
@@ -43429,7 +43488,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="326" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B326" t="s">
         <v>59</v>
       </c>
@@ -43476,7 +43535,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="327" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B327" t="s">
         <v>49</v>
       </c>
@@ -43523,7 +43582,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="328" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B328" t="s">
         <v>50</v>
       </c>
@@ -43570,7 +43629,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="329" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A329" s="6"/>
       <c r="B329" t="s">
         <v>68</v>
@@ -43618,7 +43677,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="330" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B330" t="s">
         <v>69</v>
       </c>
@@ -43665,12 +43724,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="332" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:16" x14ac:dyDescent="0.35">
       <c r="C332" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="333" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:16" x14ac:dyDescent="0.35">
       <c r="C333" t="s">
         <v>0</v>
       </c>
@@ -43714,7 +43773,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="334" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B334" t="s">
         <v>18</v>
       </c>
@@ -43761,7 +43820,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="335" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B335" t="s">
         <v>19</v>
       </c>
@@ -43808,7 +43867,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="336" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B336" t="s">
         <v>20</v>
       </c>
@@ -43855,7 +43914,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="337" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B337" t="s">
         <v>29</v>
       </c>
@@ -43902,7 +43961,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="338" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A338" s="7" t="s">
         <v>63</v>
       </c>
@@ -43952,7 +44011,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="339" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B339" t="s">
         <v>64</v>
       </c>
@@ -43999,7 +44058,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="340" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B340" t="s">
         <v>47</v>
       </c>
@@ -44046,7 +44105,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="341" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B341" t="s">
         <v>52</v>
       </c>
@@ -44093,7 +44152,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="342" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B342" t="s">
         <v>53</v>
       </c>
@@ -44140,7 +44199,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="343" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B343" t="s">
         <v>54</v>
       </c>
@@ -44187,7 +44246,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="344" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B344" t="s">
         <v>61</v>
       </c>
@@ -44234,7 +44293,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="345" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B345" t="s">
         <v>57</v>
       </c>
@@ -44281,7 +44340,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="346" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B346" t="s">
         <v>55</v>
       </c>
@@ -44328,7 +44387,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="347" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B347" t="s">
         <v>56</v>
       </c>
@@ -44375,7 +44434,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="348" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B348" t="s">
         <v>48</v>
       </c>
@@ -44422,7 +44481,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="349" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B349" t="s">
         <v>24</v>
       </c>
@@ -44469,7 +44528,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="350" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B350" t="s">
         <v>26</v>
       </c>
@@ -44516,7 +44575,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="351" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B351" t="s">
         <v>25</v>
       </c>
@@ -44563,7 +44622,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="352" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B352" t="s">
         <v>28</v>
       </c>
@@ -44610,7 +44669,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="353" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B353" t="s">
         <v>30</v>
       </c>
@@ -44657,7 +44716,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="354" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A354" s="6"/>
       <c r="B354" t="s">
         <v>65</v>
@@ -44705,7 +44764,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="355" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A355" s="6"/>
       <c r="B355" t="s">
         <v>31</v>
@@ -44753,7 +44812,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="356" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B356" t="s">
         <v>66</v>
       </c>
@@ -44800,7 +44859,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="357" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B357" t="s">
         <v>58</v>
       </c>
@@ -44847,7 +44906,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="358" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B358" t="s">
         <v>67</v>
       </c>
@@ -44894,7 +44953,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="359" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B359" t="s">
         <v>59</v>
       </c>
@@ -44941,7 +45000,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="360" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B360" t="s">
         <v>49</v>
       </c>
@@ -44988,7 +45047,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="361" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B361" t="s">
         <v>50</v>
       </c>
@@ -45035,7 +45094,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="362" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A362" s="6"/>
       <c r="B362" t="s">
         <v>68</v>
@@ -45083,7 +45142,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="363" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B363" t="s">
         <v>69</v>
       </c>
@@ -45130,12 +45189,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="365" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:16" x14ac:dyDescent="0.35">
       <c r="C365" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="366" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:16" x14ac:dyDescent="0.35">
       <c r="C366" t="s">
         <v>0</v>
       </c>
@@ -45179,7 +45238,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="367" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B367" t="s">
         <v>18</v>
       </c>
@@ -45226,7 +45285,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="368" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B368" t="s">
         <v>19</v>
       </c>
@@ -45273,7 +45332,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="369" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B369" t="s">
         <v>20</v>
       </c>
@@ -45320,7 +45379,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="370" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B370" t="s">
         <v>29</v>
       </c>
@@ -45367,7 +45426,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="371" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A371" s="7" t="s">
         <v>63</v>
       </c>
@@ -45417,7 +45476,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="372" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B372" t="s">
         <v>64</v>
       </c>
@@ -45464,7 +45523,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="373" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B373" t="s">
         <v>47</v>
       </c>
@@ -45511,7 +45570,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="374" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B374" t="s">
         <v>52</v>
       </c>
@@ -45558,7 +45617,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="375" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B375" t="s">
         <v>53</v>
       </c>
@@ -45605,7 +45664,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="376" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B376" t="s">
         <v>54</v>
       </c>
@@ -45652,7 +45711,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="377" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B377" t="s">
         <v>61</v>
       </c>
@@ -45699,7 +45758,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="378" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B378" t="s">
         <v>57</v>
       </c>
@@ -45746,7 +45805,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="379" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B379" t="s">
         <v>55</v>
       </c>
@@ -45793,7 +45852,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="380" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B380" t="s">
         <v>56</v>
       </c>
@@ -45840,7 +45899,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="381" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B381" t="s">
         <v>48</v>
       </c>
@@ -45887,7 +45946,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="382" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B382" t="s">
         <v>24</v>
       </c>
@@ -45934,7 +45993,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="383" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B383" t="s">
         <v>26</v>
       </c>
@@ -45981,7 +46040,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="384" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B384" t="s">
         <v>25</v>
       </c>
@@ -46028,7 +46087,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="385" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B385" t="s">
         <v>28</v>
       </c>
@@ -46075,7 +46134,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="386" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B386" t="s">
         <v>30</v>
       </c>
@@ -46122,7 +46181,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="387" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A387" s="6"/>
       <c r="B387" t="s">
         <v>65</v>
@@ -46170,7 +46229,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="388" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A388" s="6"/>
       <c r="B388" t="s">
         <v>31</v>
@@ -46218,7 +46277,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="389" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B389" t="s">
         <v>66</v>
       </c>
@@ -46265,7 +46324,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="390" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B390" t="s">
         <v>58</v>
       </c>
@@ -46312,7 +46371,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="391" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B391" t="s">
         <v>67</v>
       </c>
@@ -46359,7 +46418,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="392" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B392" t="s">
         <v>59</v>
       </c>
@@ -46406,7 +46465,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="393" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B393" t="s">
         <v>49</v>
       </c>
@@ -46453,7 +46512,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="394" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B394" t="s">
         <v>50</v>
       </c>
@@ -46500,7 +46559,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="395" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A395" s="6"/>
       <c r="B395" t="s">
         <v>68</v>
@@ -46548,7 +46607,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="396" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B396" t="s">
         <v>69</v>
       </c>
@@ -46604,16 +46663,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8D83F18-3FBD-4205-9BA7-FDC3EC3AA3CF}">
   <dimension ref="B2:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>71</v>
       </c>
@@ -46634,12 +46693,12 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>71</v>
       </c>
